--- a/运行结果/file.xlsx
+++ b/运行结果/file.xlsx
@@ -16,63 +16,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>保护海洋</t>
   </si>
   <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>保护海洋！</t>
+  </si>
+  <si>
     <t>见证历史</t>
   </si>
   <si>
-    <t>保护海洋！</t>
+    <t>支持！</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>保护海洋！保护地球！</t>
+  </si>
+  <si>
+    <t>反对排放</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>好！</t>
+  </si>
+  <si>
+    <t>保护地球</t>
+  </si>
+  <si>
+    <t>保护海洋！！！</t>
+  </si>
+  <si>
+    <t>坚决抵制日本核污水排海</t>
+  </si>
+  <si>
+    <t>注意安全</t>
   </si>
   <si>
     <t>保护</t>
   </si>
   <si>
-    <t>保护海洋！保护地球！</t>
-  </si>
-  <si>
-    <t>支持</t>
-  </si>
-  <si>
-    <t>保护地球</t>
-  </si>
-  <si>
-    <t>保护海洋！！！</t>
+    <t>保护地球！保护海洋！</t>
   </si>
   <si>
     <t>辐岛</t>
   </si>
   <si>
-    <t>致敬</t>
-  </si>
-  <si>
-    <t>保护海洋！保护生态！保护地球！</t>
-  </si>
-  <si>
-    <t>保护海洋，保护地球</t>
-  </si>
-  <si>
-    <t>坚决抵制日本排放核污水</t>
-  </si>
-  <si>
-    <t>泪目</t>
-  </si>
-  <si>
-    <t>唉</t>
-  </si>
-  <si>
-    <t>支持！</t>
-  </si>
-  <si>
-    <t>坚决抵制日本排放核污染水！</t>
-  </si>
-  <si>
-    <t>坚决抵制日本排放核污染水</t>
-  </si>
-  <si>
-    <t>上热门！</t>
+    <t>逆天</t>
+  </si>
+  <si>
+    <t>坚决抵制日本核污水排海！！！保护海洋！！！</t>
+  </si>
+  <si>
+    <t>支持！！！</t>
   </si>
 </sst>
 </file>
@@ -85,7 +88,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,140 +568,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1006,169 +1017,169 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A1" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1738</v>
+      <c r="B1" s="1">
+        <v>1150</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1300</v>
+      <c r="B2" s="1">
+        <v>882</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>772</v>
+      <c r="B3" s="1">
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>562</v>
+      <c r="B4" s="1">
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>540</v>
+      <c r="B5" s="1">
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>476</v>
+      <c r="B7" s="1">
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>463</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>386</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>370</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>343</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>342</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>290</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>282</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>261</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>217</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>209</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>209</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>202</v>
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>194</v>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
